--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,99 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -770,16 +777,19 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>700</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3600</v>
+        <v>10300</v>
       </c>
       <c r="E17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-10200</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,22 +1042,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1038,45 +1072,51 @@
       <c r="K20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-10100</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1088,45 +1128,51 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3500</v>
+        <v>-10200</v>
       </c>
       <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3500</v>
+        <v>-10200</v>
       </c>
       <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3500</v>
+        <v>-10200</v>
       </c>
       <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,22 +1424,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -1386,37 +1456,43 @@
       <c r="K32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3500</v>
+        <v>-10200</v>
       </c>
       <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3500</v>
+        <v>-10200</v>
       </c>
       <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,182 +1619,201 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E41" s="3">
         <v>18000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>4400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>29100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>36300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E46" s="3">
         <v>18600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>47400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>56900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +1841,43 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>4800</v>
       </c>
       <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>200</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E54" s="3">
         <v>18800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,129 +2095,142 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2105,42 +2248,48 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>13700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-201500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-198000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-195300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-192000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-191400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-186600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-182700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E76" s="3">
         <v>17600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3500</v>
+        <v>-10200</v>
       </c>
       <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,13 +2832,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,16 +3070,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2871,16 +3092,19 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>4400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>14600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,16 +3338,19 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3116,16 +3362,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -780,20 +787,23 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,19 +907,22 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>7100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -916,14 +936,17 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>10300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,25 +1076,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1075,40 +1109,46 @@
       <c r="L20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2700</v>
-      </c>
       <c r="G21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1118,8 +1158,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1131,48 +1171,54 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,25 +1494,28 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -1459,40 +1529,46 @@
       <c r="L32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>10400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1663,70 +1753,76 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>4400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>15300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>36300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1742,14 +1838,17 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1757,63 +1856,69 @@
         <v>700</v>
       </c>
       <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>47400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,40 +1949,46 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>1300</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>200</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>48800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,48 +2226,52 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -2154,78 +2288,87 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2233,7 +2376,7 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2251,45 +2394,51 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>13700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E62" s="3">
         <v>5100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-201500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-198000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-195300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-192000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-191400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-186600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-182700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E76" s="3">
         <v>9200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,17 +3031,18 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -2851,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-6100</v>
+        <v>-20600</v>
       </c>
       <c r="H89" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-5200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,19 +3291,20 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3095,16 +3316,19 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>12300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>4400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>14600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>1300</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>11200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,66 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,34 +732,37 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
-        <v>500</v>
-      </c>
       <c r="H8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,16 +770,16 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>2200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -790,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,16 +808,16 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>9300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
-        <v>800</v>
-      </c>
       <c r="H12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I12" s="3">
         <v>4700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>7100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -939,14 +958,17 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
-        <v>3400</v>
-      </c>
       <c r="H17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,28 +1109,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1112,43 +1145,49 @@
       <c r="M20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2800</v>
-      </c>
       <c r="H21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1161,8 +1200,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1174,51 +1213,57 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,28 +1563,31 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -1532,43 +1601,49 @@
       <c r="M32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2700</v>
-      </c>
       <c r="H33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2700</v>
-      </c>
       <c r="H35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18000</v>
       </c>
-      <c r="G41" s="3">
-        <v>20700</v>
-      </c>
       <c r="H41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I41" s="3">
         <v>18300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1756,81 +1845,87 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>4400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>36300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>400</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -1841,84 +1936,93 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
       <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
-        <v>800</v>
-      </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E46" s="3">
         <v>8000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18600</v>
       </c>
-      <c r="G46" s="3">
-        <v>21600</v>
-      </c>
       <c r="H46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I46" s="3">
         <v>25500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>40300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>56900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,43 +2056,49 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>1300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E54" s="3">
         <v>14000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18800</v>
       </c>
-      <c r="G54" s="3">
-        <v>21800</v>
-      </c>
       <c r="H54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I54" s="3">
         <v>26200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,60 +2356,64 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
-        <v>1100</v>
-      </c>
       <c r="H57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2291,95 +2424,104 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
-        <v>1600</v>
-      </c>
       <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2397,48 +2539,54 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>13700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E62" s="3">
         <v>5200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5100</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
-        <v>1600</v>
-      </c>
       <c r="H66" s="3">
+        <v>900</v>
+      </c>
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2680,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>39100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-201500</v>
       </c>
-      <c r="G72" s="3">
-        <v>-198000</v>
-      </c>
       <c r="H72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-195300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-192000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-191400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-186600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-182700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E76" s="3">
         <v>7400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17600</v>
       </c>
-      <c r="G76" s="3">
-        <v>20200</v>
-      </c>
       <c r="H76" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="I76" s="3">
         <v>22000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2700</v>
-      </c>
       <c r="H81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3053,7 +3251,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
-        <v>-20600</v>
-      </c>
       <c r="H89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I89" s="3">
         <v>12500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,22 +3511,23 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3319,16 +3539,19 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>29300</v>
+      </c>
+      <c r="I94" s="3">
         <v>11000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>14600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>-500</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>500</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
-        <v>2400</v>
-      </c>
       <c r="H102" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I102" s="3">
         <v>4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
       </c>
       <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,17 +821,17 @@
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,29 +946,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>7100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -961,14 +981,17 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,22 +1153,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
@@ -1148,46 +1182,52 @@
       <c r="N20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1203,8 +1243,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1216,54 +1256,60 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,22 +1645,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1848,88 +1938,94 @@
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>4400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1939,90 +2035,99 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
       <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E46" s="3">
         <v>8400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>47400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>56900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2068,37 +2176,40 @@
         <v>4700</v>
       </c>
       <c r="E48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1300</v>
       </c>
       <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E54" s="3">
         <v>15000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,57 +2497,60 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2427,104 +2561,113 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2542,13 +2685,16 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>13700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2556,37 +2702,40 @@
         <v>4900</v>
       </c>
       <c r="E62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F62" s="3">
         <v>5200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>7200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2847,11 +3015,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>39100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-201500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-43900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-195300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-192000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-191400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-186600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-182700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E76" s="3">
         <v>7900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-37100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3242,19 +3441,19 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,25 +3732,26 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3542,16 +3763,19 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3635,37 +3865,40 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>29300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>14600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E100" s="3">
         <v>3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>500</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>500</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,142 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
       </c>
       <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -809,13 +816,16 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>200</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -824,17 +834,17 @@
         <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,32 +966,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>7100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -984,14 +1004,17 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,34 +1177,35 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
@@ -1185,49 +1219,55 @@
       <c r="O20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1246,8 +1286,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1259,57 +1299,63 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,34 +1703,37 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
@@ -1677,49 +1747,55 @@
       <c r="O32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E41" s="3">
         <v>21700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1941,70 +2031,76 @@
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>4400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>36300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2012,23 +2108,23 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2038,96 +2134,105 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>700</v>
+      </c>
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E46" s="3">
         <v>22900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>47400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>56900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,49 +2272,55 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E48" s="3">
         <v>4700</v>
       </c>
       <c r="F48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
       </c>
       <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E54" s="3">
         <v>28800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,72 +2618,76 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2564,113 +2698,122 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2688,54 +2831,60 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>13700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E62" s="3">
         <v>4900</v>
       </c>
       <c r="F62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G62" s="3">
         <v>5200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3018,11 +3186,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>39100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-201500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-43900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-195300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-192000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-191400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-186600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-182700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E76" s="3">
         <v>22600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-37100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3444,19 +3643,19 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,28 +3953,29 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3766,16 +3987,19 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3868,37 +4098,40 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>29300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>11000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>14600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E100" s="3">
         <v>18600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>500</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>500</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,151 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
       </c>
       <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -819,16 +826,19 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>200</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -837,16 +847,16 @@
         <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9300</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,34 +986,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>7100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-3800</v>
       </c>
       <c r="E18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,37 +1211,38 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
@@ -1222,52 +1256,58 @@
       <c r="P20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-3800</v>
       </c>
       <c r="E21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1289,8 +1329,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1302,60 +1342,66 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,37 +1773,40 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2053,150 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E41" s="3">
         <v>23100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>4400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>36300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2111,22 +2207,22 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>100</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2137,14 +2233,17 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,87 +2251,93 @@
         <v>1800</v>
       </c>
       <c r="E45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>700</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
       </c>
       <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E46" s="3">
         <v>25100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>56900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,43 +2392,46 @@
         <v>4600</v>
       </c>
       <c r="E48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F48" s="3">
         <v>4700</v>
       </c>
       <c r="G48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H48" s="3">
         <v>4600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E54" s="3">
         <v>30800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,25 +2806,25 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2701,102 +2835,111 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2834,13 +2977,16 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>13700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,43 +2994,46 @@
         <v>4700</v>
       </c>
       <c r="E62" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F62" s="3">
         <v>4900</v>
       </c>
       <c r="G62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H62" s="3">
         <v>5200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5100</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,11 +3357,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>39100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-59200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-201500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-43900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-195300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-192000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-191400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-186600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-182700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E76" s="3">
         <v>24900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-37100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,19 +3845,19 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4174,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3990,16 +4211,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4101,37 +4331,40 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>29300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>14600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>9900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>5800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>500</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>500</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,131 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>500</v>
       </c>
       <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,27 +799,27 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +849,8 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>200</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -850,17 +859,17 @@
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>2300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,27 +1019,27 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>7100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1030,14 +1049,17 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,40 +1244,41 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
@@ -1259,55 +1292,61 @@
       <c r="Q20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1332,8 +1371,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1345,63 +1384,69 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,40 +1842,43 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
@@ -1823,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E41" s="3">
         <v>19200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2131,77 +2220,83 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>4400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>36300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2210,23 +2305,23 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2236,108 +2331,117 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E45" s="3">
         <v>1800</v>
       </c>
       <c r="F45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
       </c>
       <c r="J45" s="3">
+        <v>700</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E46" s="3">
         <v>21800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>56900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E48" s="3">
         <v>4600</v>
       </c>
       <c r="F48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G48" s="3">
         <v>4700</v>
       </c>
       <c r="H48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I48" s="3">
         <v>4600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,46 +2699,49 @@
         <v>1200</v>
       </c>
       <c r="E52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1300</v>
       </c>
       <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="J52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E54" s="3">
         <v>27600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>58100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2809,25 +2942,25 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2838,108 +2971,117 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2950,19 +3092,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2980,13 +3122,16 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>13700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2997,43 +3142,46 @@
         <v>4700</v>
       </c>
       <c r="F62" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="G62" s="3">
         <v>4900</v>
       </c>
       <c r="H62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I62" s="3">
         <v>5200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3360,11 +3527,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>39100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-74500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-67000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-201500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-195300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-192000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-191400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-186600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-182700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E76" s="3">
         <v>21300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-37100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,19 +4046,19 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,34 +4394,35 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4214,16 +4434,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,13 +4542,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4334,37 +4563,40 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>29300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>14600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>500</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>500</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>3800</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>500</v>
       </c>
       <c r="I8" s="3">
         <v>500</v>
       </c>
       <c r="J8" s="3">
+        <v>500</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,27 +809,27 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +862,8 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>200</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
@@ -862,17 +872,17 @@
         <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,13 +1025,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1022,27 +1042,27 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>7100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,31 +1291,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,78 +1341,81 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1387,16 +1427,19 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,49 +1447,52 @@
         <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,49 +1606,52 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,49 +1659,52 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,31 +1927,31 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,49 +1977,52 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,104 +2083,110 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E41" s="3">
         <v>18700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2223,83 +2313,89 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>4400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>36300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -2308,23 +2404,23 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2334,137 +2430,146 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="F45" s="3">
         <v>1800</v>
       </c>
       <c r="G45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
       </c>
       <c r="K45" s="3">
+        <v>700</v>
+      </c>
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
         <v>21600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>56900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4600</v>
       </c>
       <c r="F48" s="3">
         <v>4600</v>
       </c>
       <c r="G48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H48" s="3">
         <v>4700</v>
       </c>
       <c r="I48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J48" s="3">
         <v>4600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1300</v>
       </c>
       <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E54" s="3">
         <v>27200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>58100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2945,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2974,114 +3108,123 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3095,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>500</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3125,13 +3268,16 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>13700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3145,43 +3291,46 @@
         <v>4700</v>
       </c>
       <c r="G62" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H62" s="3">
         <v>4900</v>
       </c>
       <c r="I62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J62" s="3">
         <v>5200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>41500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3530,11 +3698,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>39100</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-78300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-77700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-74500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-67000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-59200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-55900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-201500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-195300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-192000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-191400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-186600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-182700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E76" s="3">
         <v>21200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-37100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,49 +4159,52 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4049,19 +4248,19 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,37 +4615,38 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4437,16 +4658,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,17 +4772,20 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4566,37 +4796,40 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>29300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>14600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>9900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>500</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>500</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>500</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
       </c>
       <c r="K8" s="3">
+        <v>500</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,27 +819,27 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,8 +875,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>200</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -875,17 +885,17 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,16 +1045,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1045,27 +1065,27 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>7100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,31 +1328,31 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1411,14 +1451,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1430,69 +1470,75 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-3400</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-3400</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-3900</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1930,31 +2000,31 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-3900</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-3900</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E41" s="3">
         <v>17800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2316,25 +2406,28 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>4400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>36300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,63 +2435,66 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -2407,23 +2503,23 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2433,146 +2529,155 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="E45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F45" s="3">
         <v>2800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1800</v>
       </c>
       <c r="G45" s="3">
         <v>1800</v>
       </c>
       <c r="H45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
       </c>
       <c r="L45" s="3">
+        <v>700</v>
+      </c>
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>15000</v>
       </c>
       <c r="E46" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F46" s="3">
         <v>21600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>25500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>35400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>56900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4100</v>
+        <v>5300</v>
       </c>
       <c r="E48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F48" s="3">
         <v>4800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4600</v>
       </c>
       <c r="G48" s="3">
         <v>4600</v>
       </c>
       <c r="H48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I48" s="3">
         <v>4700</v>
       </c>
       <c r="J48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,52 +2939,55 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
       </c>
       <c r="P52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E54" s="3">
         <v>31500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>48800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>58100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3082,25 +3216,25 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3111,120 +3245,129 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3241,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3271,18 +3414,21 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>13700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E62" s="3">
         <v>4700</v>
@@ -3294,43 +3440,46 @@
         <v>4700</v>
       </c>
       <c r="H62" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I62" s="3">
         <v>4900</v>
       </c>
       <c r="J62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K62" s="3">
         <v>5200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>4700</v>
       </c>
       <c r="E66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>41500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3677,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3701,11 +3869,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>39100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-81700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-78300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-74500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-59200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-201500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-43900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-195300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-192000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-191400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-186600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-182700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E76" s="3">
         <v>20700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-37100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-3900</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4251,19 +4450,19 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,40 +4836,41 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4661,16 +4882,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,20 +5002,23 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4799,37 +5029,40 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>29300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>14600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>9900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>500</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>500</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,55 +762,61 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,30 +835,30 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,30 +897,30 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>9300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,55 +972,61 @@
         <v>1100</v>
       </c>
       <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1400</v>
       </c>
       <c r="M12" s="3">
         <v>1500</v>
       </c>
       <c r="N12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P12" s="3">
         <v>4100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>8600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>9400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>8900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>9700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,53 +1098,59 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>7100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3100</v>
       </c>
       <c r="G17" s="3">
         <v>4400</v>
       </c>
       <c r="H17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>11600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>12000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>11400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>12300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-10200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-4600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1331,34 +1398,34 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>200</v>
+      </c>
+      <c r="V20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-10100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-4400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1454,17 +1533,17 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1473,72 +1552,84 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2003,34 +2142,34 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F41" s="3">
         <v>12600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>18700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>19200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>23100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>21700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>18000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>18300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>13400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>19200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>11600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>13300</v>
       </c>
       <c r="T41" s="3">
         <v>11600</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>13300</v>
+      </c>
+      <c r="V41" s="3">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2409,25 +2588,31 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>4400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>15300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>14700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>29100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>36300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,16 +2623,16 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2459,31 +2644,37 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2493,165 +2684,183 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F46" s="3">
         <v>15000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>25800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>21600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>21800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>25100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>22900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>11700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>18600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>25500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>35400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>40300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>47400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>56900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2676,14 +2885,14 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2706,64 +2915,76 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
       <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1100</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
       </c>
       <c r="J52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F54" s="3">
         <v>21000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>31500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>27200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>27600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>30800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>28800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>15000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>14000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>18800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>26200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>36200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>42200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>48800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>58100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,69 +3401,77 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>9100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3219,19 +3486,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3239,8 +3506,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3248,126 +3515,144 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>9500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>12300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>14600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>16800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>18500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>23800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3387,23 +3672,23 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3417,24 +3702,30 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>13700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F62" s="3">
         <v>4600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4700</v>
       </c>
       <c r="G62" s="3">
         <v>4700</v>
@@ -3443,43 +3734,49 @@
         <v>4700</v>
       </c>
       <c r="I62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K62" s="3">
         <v>4900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>4000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3955,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,55 +3970,61 @@
         <v>4700</v>
       </c>
       <c r="E66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>18600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>21400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>41500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3845,14 +4180,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>4300</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -3872,14 +4207,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>39100</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-81700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-78300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-77700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-74500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-70700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-67000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-62700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-59200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-55900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-201500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-43900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-195300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-192000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-191400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-186600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-182700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F76" s="3">
         <v>16300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>21200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>21300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>24900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>22600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>17600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-37100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>22000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>24100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>23600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>27400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>16600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4453,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4462,13 +4859,13 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>12500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-9000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-8400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4854,29 +5295,29 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4885,16 +5326,22 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5458,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5023,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5032,37 +5491,43 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>12300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>29300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>11000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>14600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>7200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>9900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>18600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>200</v>
+      </c>
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>15000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>11200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>9100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>7600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,55 +772,58 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>3800</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>500</v>
       </c>
       <c r="M8" s="3">
         <v>500</v>
       </c>
       <c r="N8" s="3">
+        <v>500</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -841,27 +848,27 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,8 +913,8 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>200</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -913,17 +923,17 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,13 +1104,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1104,8 +1124,8 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1113,27 +1133,27 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>7100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1404,31 +1438,31 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1539,14 +1579,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1558,78 +1598,84 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-3500</v>
       </c>
       <c r="E23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-3500</v>
       </c>
       <c r="E26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-3500</v>
       </c>
       <c r="E27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2148,31 +2218,31 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-3500</v>
       </c>
       <c r="E33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-3500</v>
       </c>
       <c r="E35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E41" s="3">
         <v>12100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2594,30 +2684,33 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>4400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>29100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>36300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2629,52 +2722,55 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2690,11 +2786,11 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -2703,23 +2799,23 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2729,138 +2825,147 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1800</v>
       </c>
       <c r="J45" s="3">
         <v>1800</v>
       </c>
       <c r="K45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>700</v>
       </c>
       <c r="N45" s="3">
         <v>700</v>
       </c>
       <c r="O45" s="3">
+        <v>700</v>
+      </c>
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E46" s="3">
         <v>13500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>40300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>47400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>56900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2891,11 +2996,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2921,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4600</v>
       </c>
       <c r="J48" s="3">
         <v>4600</v>
       </c>
       <c r="K48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="L48" s="3">
         <v>4700</v>
       </c>
       <c r="M48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N48" s="3">
         <v>4600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,61 +3298,64 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
       </c>
       <c r="H52" s="3">
+        <v>700</v>
+      </c>
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1300</v>
       </c>
       <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="O52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
       </c>
       <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
         <v>1700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E54" s="3">
         <v>19100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>30800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>48800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>58100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,66 +3543,69 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3492,25 +3626,25 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3521,14 +3655,17 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,120 +3676,126 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3678,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
-      </c>
-      <c r="M61" s="3">
-        <v>500</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3708,27 +3851,30 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>13700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E62" s="3">
         <v>4500</v>
       </c>
       <c r="F62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G62" s="3">
         <v>4600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>4700</v>
       </c>
       <c r="H62" s="3">
         <v>4700</v>
@@ -3740,43 +3886,46 @@
         <v>4700</v>
       </c>
       <c r="K62" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="L62" s="3">
         <v>4900</v>
       </c>
       <c r="M62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N62" s="3">
         <v>5200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,61 +4128,64 @@
         <v>4700</v>
       </c>
       <c r="E66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>41500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4186,11 +4354,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>4300</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -4213,11 +4381,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>39100</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-88300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-85300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-81700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-78300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-74500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-70700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-67000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-59200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-201500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-195300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-192000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-191400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-186600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-182700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E76" s="3">
         <v>14400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-3500</v>
       </c>
       <c r="E81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4856,19 +5055,19 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5290,37 +5511,37 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5332,16 +5553,19 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5476,17 +5706,17 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5497,37 +5727,40 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>29300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>11000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>14600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>7200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>9900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,61 +6053,64 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>4400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>500</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>500</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10700</v>
+        <v>-2600</v>
       </c>
       <c r="E102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,55 +779,58 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>3800</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>500</v>
       </c>
       <c r="N8" s="3">
         <v>500</v>
       </c>
       <c r="O8" s="3">
+        <v>500</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -851,27 +858,27 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,8 +926,8 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>200</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -926,17 +936,17 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,16 +1124,19 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1127,8 +1147,8 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1136,27 +1156,27 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>7100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1441,31 +1475,31 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1582,14 +1622,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1601,81 +1641,87 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2221,31 +2291,31 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E41" s="3">
         <v>9700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2687,25 +2777,28 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>4400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>29100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>36300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2725,52 +2818,55 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2789,11 +2885,11 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -2802,23 +2898,23 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2828,144 +2924,153 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1800</v>
       </c>
       <c r="K45" s="3">
         <v>1800</v>
       </c>
       <c r="L45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>700</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
       <c r="P45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E46" s="3">
         <v>10600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>25500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>40300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>47400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>56900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2999,11 +3104,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3029,73 +3134,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4600</v>
       </c>
       <c r="K48" s="3">
         <v>4600</v>
       </c>
       <c r="L48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="M48" s="3">
         <v>4700</v>
       </c>
       <c r="N48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O48" s="3">
         <v>4600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>200</v>
-      </c>
-      <c r="V48" s="3">
-        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
       </c>
       <c r="F52" s="3">
+        <v>500</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>700</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
       </c>
       <c r="I52" s="3">
+        <v>700</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1300</v>
       </c>
       <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="P52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
       </c>
       <c r="T52" s="3">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E54" s="3">
         <v>16100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>31500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>48800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>58100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3546,61 +3677,64 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3629,25 +3763,25 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3658,144 +3792,153 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
-      </c>
-      <c r="E59" s="3">
-        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>800</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3824,19 +3967,19 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
-      </c>
-      <c r="N61" s="3">
-        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3854,30 +3997,33 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>13700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
         <v>4400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4500</v>
       </c>
       <c r="F62" s="3">
         <v>4500</v>
       </c>
       <c r="G62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H62" s="3">
         <v>4600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4700</v>
       </c>
       <c r="I62" s="3">
         <v>4700</v>
@@ -3889,43 +4035,46 @@
         <v>4700</v>
       </c>
       <c r="L62" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="M62" s="3">
         <v>4900</v>
       </c>
       <c r="N62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O62" s="3">
         <v>5200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="E66" s="3">
         <v>4700</v>
       </c>
       <c r="F66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>41500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4357,11 +4525,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>4300</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -4384,11 +4552,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>39100</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-93800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-88300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-85300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-81700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-78300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-70700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-67000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-59200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-201500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-43900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-195300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-192000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-191400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-186600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-182700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E76" s="3">
         <v>11400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-37100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5058,19 +5257,19 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-8400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5514,37 +5735,37 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5556,16 +5777,19 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5709,17 +5939,17 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5730,37 +5960,40 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>12300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>29300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>11000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>14600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>7200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>9900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6056,61 +6302,64 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>4400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>18600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>500</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>500</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>HSTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,55 +786,58 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>3800</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>500</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
       </c>
       <c r="P8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -861,27 +868,27 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,8 +939,8 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>200</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -939,17 +949,17 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,8 +1158,8 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1150,8 +1170,8 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1159,27 +1179,27 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>7100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1189,14 +1209,17 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1312,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1393,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1478,31 +1512,31 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1562,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1625,14 +1665,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1644,84 +1684,90 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2294,31 +2364,31 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
@@ -2332,76 +2402,82 @@
       <c r="X32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
         <v>7300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2780,25 +2870,28 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>4400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>29100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>36300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2809,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2821,78 +2914,81 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2901,23 +2997,23 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2927,150 +3023,159 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1800</v>
       </c>
       <c r="L45" s="3">
         <v>1800</v>
       </c>
       <c r="M45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>700</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
       </c>
       <c r="Q45" s="3">
+        <v>700</v>
+      </c>
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E46" s="3">
         <v>8300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>25500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>35400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>40300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>47400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>56900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3107,11 +3212,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3137,76 +3242,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4600</v>
       </c>
       <c r="L48" s="3">
         <v>4600</v>
       </c>
       <c r="M48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="N48" s="3">
         <v>4700</v>
       </c>
       <c r="O48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P48" s="3">
         <v>4600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,67 +3538,70 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
       </c>
       <c r="G52" s="3">
+        <v>500</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>700</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
       </c>
       <c r="J52" s="3">
+        <v>700</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1300</v>
       </c>
       <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="Q52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>200</v>
       </c>
       <c r="T52" s="3">
         <v>200</v>
       </c>
       <c r="U52" s="3">
+        <v>200</v>
+      </c>
+      <c r="V52" s="3">
         <v>1700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E54" s="3">
         <v>13500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>48800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>58100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3680,61 +3811,64 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3766,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -3795,150 +3929,159 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3970,19 +4113,19 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>500</v>
       </c>
       <c r="P61" s="3">
         <v>500</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4000,33 +4143,36 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>13700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>4300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4500</v>
       </c>
       <c r="G62" s="3">
         <v>4500</v>
       </c>
       <c r="H62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I62" s="3">
         <v>4600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4700</v>
       </c>
       <c r="J62" s="3">
         <v>4700</v>
@@ -4038,43 +4184,46 @@
         <v>4700</v>
       </c>
       <c r="M62" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="N62" s="3">
         <v>4900</v>
       </c>
       <c r="O62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P62" s="3">
         <v>5200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4700</v>
       </c>
       <c r="F66" s="3">
         <v>4700</v>
       </c>
       <c r="G66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>41500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4528,11 +4696,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>4300</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -4555,11 +4723,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>39100</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-93800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-88300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-85300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-81700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-77700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-70700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-59200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-201500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-43900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-195300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-192000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-191400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-186600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-182700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-178100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E76" s="3">
         <v>9300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-37100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5260,19 +5459,19 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-8400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5738,37 +5959,37 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5780,16 +6001,19 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5942,17 +6172,17 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5963,37 +6193,40 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>12300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>29300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>11000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>14600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>7200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>9900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6305,61 +6551,64 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>18600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>500</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>500</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5000</v>
       </c>
     </row>
